--- a/ENS_215/Data/Class_survey_2026.xlsx
+++ b/ENS_215/Data/Class_survey_2026.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stahlm\Documents\Teaching_UnionCollege\Environmental_Data_Analysis\stahlm.github.io\ENS_215\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF98624-7DA8-4EE4-A0FC-19893529485D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C11F7E-5833-4A5E-9B13-762BCF4F0236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Major" sheetId="3" r:id="rId1"/>
@@ -23,12 +23,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>Topic</t>
   </si>
@@ -219,19 +222,13 @@
     <t>count</t>
   </si>
   <si>
-    <t>ES</t>
-  </si>
-  <si>
     <t>R/Rstudio</t>
   </si>
   <si>
-    <t>MATH</t>
-  </si>
-  <si>
-    <t>CHEM</t>
-  </si>
-  <si>
-    <t>FRENCH</t>
+    <t>ESPE</t>
+  </si>
+  <si>
+    <t>ECON</t>
   </si>
 </sst>
 </file>
@@ -558,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,10 +576,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -590,7 +587,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -598,23 +595,7 @@
         <v>65</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -627,7 +608,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,10 +627,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -657,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -673,7 +654,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -687,7 +668,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,7 +694,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -721,7 +702,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -729,7 +710,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -741,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="88" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
